--- a/research/bank_index.xlsx
+++ b/research/bank_index.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F760000E-AEC2-D04A-AA3F-06A05938CEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -463,9 +464,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -511,11 +512,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -536,9 +537,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -576,9 +577,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -613,7 +614,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -648,7 +649,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -821,20 +822,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>146</v>
       </c>
@@ -842,7 +843,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -850,7 +851,7 @@
         <v>89.999999999999986</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -858,7 +859,7 @@
         <v>84.16567033401023</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -866,7 +867,7 @@
         <v>76.659029450305354</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -874,7 +875,7 @@
         <v>77.017085805789591</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -882,7 +883,7 @@
         <v>67.381419757948251</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -890,7 +891,7 @@
         <v>74.640007089975185</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -898,7 +899,7 @@
         <v>74.593022149969272</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -906,7 +907,7 @@
         <v>80.428549767888754</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -914,7 +915,7 @@
         <v>74.058507903095389</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -922,7 +923,7 @@
         <v>74.921399248525589</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -930,7 +931,7 @@
         <v>45.126181891574326</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -938,7 +939,7 @@
         <v>65.465714742408437</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -946,7 +947,7 @@
         <v>62.088525816028017</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -954,7 +955,7 @@
         <v>23.059228307480424</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -962,7 +963,7 @@
         <v>42.139815541454453</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -970,7 +971,7 @@
         <v>89.39485525643093</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -978,7 +979,7 @@
         <v>49.980385436915007</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -986,7 +987,7 @@
         <v>14.05667138133539</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -994,7 +995,7 @@
         <v>44.173255106253144</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>50.205506164878656</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>59.069019178616323</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>50.086372098130497</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>44.054496705437515</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1034,7 +1035,7 @@
         <v>48.026142473589125</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>13.043324009975759</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>20.071686594172945</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>50.041968874621602</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>85.243639243534233</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>64.018361683898732</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>47.042756884269423</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>43.04461113035979</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1098,7 +1099,7 @@
         <v>55.025303324297973</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>55.212897590760832</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>55.267511866623224</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>45.032477879871479</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>44.061445699462261</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>10.138571261427684</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>5.0346795096601547</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>15.063069900499638</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>54.029315159300296</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>25.019202508906741</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>69.012348913570705</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>45.041183796048131</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>55.024120444746025</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>22.028391249311493</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>55.027641665162896</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>25.005054944974198</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>40.064428630705351</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>23.012244413737299</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>50.033585987339592</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>24.007766215983889</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>40.002526574070096</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>25.01275603445433</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>25.007947738825788</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>16.099667246104783</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1290,7 +1291,7 @@
         <v>45.013261029037771</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>55.152352388790881</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1306,7 +1307,7 @@
         <v>24.002826311585405</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1314,7 +1315,7 @@
         <v>48.003031203724035</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>24.005814834732124</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>35.011558998399074</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>32.0038068292424</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>50.006664486891815</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>30.012067863207903</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>44.006739240236016</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>41.003174307970767</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>25.034966011478055</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>39.009882654852625</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>18.01749998433101</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>35.043603510867605</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>55.015258051332836</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>45.003392487094196</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>19.013835966010937</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>34.014746960453998</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>23.002795771916972</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>39.005204791934709</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>55.036613781241194</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>45.020267872674602</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>15.001956026705788</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>34.006017373765829</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>43.009388033341153</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v>45.004889790305704</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>45.00239058220086</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>15.106389021011751</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>70.111693590592012</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>40.00264850767109</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -1538,7 +1539,7 @@
         <v>39.003661385304355</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -1546,7 +1547,7 @@
         <v>35.027374322736009</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>35.004021386292493</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -1562,7 +1563,7 @@
         <v>25.000707559655361</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>16.002171101758535</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>30.002449085529914</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>35.07665852774403</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -1594,7 +1595,7 @@
         <v>45.005845746431397</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -1602,7 +1603,7 @@
         <v>25.00249358207537</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>50.004734386159164</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>45.001215178969645</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -1626,7 +1627,7 @@
         <v>33.003555091990343</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -1634,7 +1635,7 @@
         <v>44.002443882621414</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>30.003022298852233</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -1650,7 +1651,7 @@
         <v>45.0171582260704</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>39.012816519251992</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>23.001668847894333</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -1674,7 +1675,7 @@
         <v>45.001707811516646</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>45.000903683425555</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>30.009280525305037</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -1698,7 +1699,7 @@
         <v>40.001739797292238</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>45.004685923323109</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>15.024586683618352</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -1722,7 +1723,7 @@
         <v>29.0142916446123</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -1730,7 +1731,7 @@
         <v>41.003153878625078</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -1738,7 +1739,7 @@
         <v>44.006418624807608</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>45.001109363022884</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>22.000585624279037</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>58.027940428612311</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -1770,7 +1771,7 @@
         <v>22.000965580401775</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>44.022733107814737</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>40.009648191390944</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>25.001182328409755</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>30.00245840188439</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -1810,7 +1811,7 @@
         <v>40.001352985820724</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>25.002088255658638</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>35.001208433494234</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>27.000803229772728</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -1842,7 +1843,7 @@
         <v>45.00423193602208</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -1850,7 +1851,7 @@
         <v>35.00532647304393</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>31.005894956879811</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -1866,7 +1867,7 @@
         <v>45.001461893608088</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>25.001710733911608</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v>35.009103977734526</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>34.000847313849206</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>27.003271544917919</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -1906,7 +1907,7 @@
         <v>32.007293504051113</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>20.008240002979267</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -1922,7 +1923,7 @@
         <v>24.000510177963289</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>30.002917258134111</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>29.000639317048122</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>35.004238086761006</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -1954,7 +1955,7 @@
         <v>25.000345645647549</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>50.005090915188241</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -1970,7 +1971,7 @@
         <v>25.001549907898873</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>15.052095926711653</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>25.001415112012126</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>40.018773876710746</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>145</v>
       </c>
